--- a/book-references.xlsx
+++ b/book-references.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">CC0</t>
   </si>
   <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
     <t xml:space="preserve">Аҟәырҟан</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">УДК 28-24 ББК 8638-21 А 54 </t>
   </si>
   <si>
+    <t xml:space="preserve">Ааи</t>
+  </si>
+  <si>
     <t xml:space="preserve">By author(s)</t>
   </si>
   <si>
@@ -86,6 +92,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Reprint (1904-1928)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цәқәырԥамҩак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дмитри Габелиа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ББК 84(5Абх) 6-5 Г 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мап</t>
   </si>
 </sst>
 </file>
@@ -100,6 +118,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,14 +140,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +160,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EB91E"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3838"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -176,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -189,10 +222,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -201,8 +230,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -258,10 +295,10 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF5EB91E"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3838"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -282,40 +319,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="F6 F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -323,19 +364,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,19 +387,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>2011</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,19 +410,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -383,19 +433,42 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/book-references.xlsx
+++ b/book-references.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t xml:space="preserve">Мап</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Амшынҵақәа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баграт Шьынқәба</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УДК 82-94 ББК 84(5Абх)-49 Шь 81</t>
   </si>
 </sst>
 </file>
@@ -319,13 +328,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="F6 F1"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.05"/>
@@ -471,13 +480,33 @@
         <v>27</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>